--- a/Signup_TestCases.xlsx
+++ b/Signup_TestCases.xlsx
@@ -1476,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Signup_TestCases.xlsx
+++ b/Signup_TestCases.xlsx
@@ -1476,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
